--- a/Design/Excel/GameHot/Datas/Hero.xlsx
+++ b/Design/Excel/GameHot/Datas/Hero.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="武器表" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>##var</t>
   </si>
@@ -35,7 +35,22 @@
     <t>Id</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>##</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>AttackInterval</t>
+  </si>
+  <si>
+    <t>BulletId</t>
+  </si>
+  <si>
+    <t>BulletSpeed</t>
+  </si>
+  <si>
+    <t>BulletSoundId</t>
   </si>
   <si>
     <t>##type</t>
@@ -44,28 +59,31 @@
     <t>int</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>##</t>
-  </si>
-  <si>
-    <t>编号</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>刘备</t>
-  </si>
-  <si>
-    <t>关羽</t>
-  </si>
-  <si>
-    <t>张飞</t>
-  </si>
-  <si>
-    <t>赵云</t>
+    <t>float</t>
+  </si>
+  <si>
+    <t>武器编号</t>
+  </si>
+  <si>
+    <t>策划备注</t>
+  </si>
+  <si>
+    <t>攻击力</t>
+  </si>
+  <si>
+    <t>攻击间隔</t>
+  </si>
+  <si>
+    <t>子弹编号</t>
+  </si>
+  <si>
+    <t>子弹速度</t>
+  </si>
+  <si>
+    <t>子弹声音编号</t>
+  </si>
+  <si>
+    <t>玩家武器</t>
   </si>
 </sst>
 </file>
@@ -246,7 +264,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
+        <fgColor theme="0" tint="-0.15"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,11 +726,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1040,83 +1061,121 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="7.54545454545455" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.54545454545454" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.54545454545455" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="8.45454545454546" style="3" customWidth="1"/>
+    <col min="2" max="3" width="9.72727272727273" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.72727272727273" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.4545454545455" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.72727272727273" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.5454545454545" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
+    <row r="2" s="1" customFormat="1" spans="1:8">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
+    <row r="3" s="1" customFormat="1" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="2:3">
+    <row r="4" s="2" customFormat="1" spans="2:8">
       <c r="B4" s="2">
-        <v>1001</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="2">
-        <v>1002</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="2">
-        <v>1003</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="2">
-        <v>1004</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>30000</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2">
+        <v>100</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G4" s="2">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/Design/Excel/GameHot/Datas/Hero.xlsx
+++ b/Design/Excel/GameHot/Datas/Hero.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>##var</t>
   </si>
@@ -35,55 +35,73 @@
     <t>Id</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>##type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>(list#sep=,),ESkill</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
-    <t>Attack</t>
-  </si>
-  <si>
-    <t>AttackInterval</t>
-  </si>
-  <si>
-    <t>BulletId</t>
-  </si>
-  <si>
-    <t>BulletSpeed</t>
-  </si>
-  <si>
-    <t>BulletSoundId</t>
-  </si>
-  <si>
-    <t>##type</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>武器编号</t>
-  </si>
-  <si>
-    <t>策划备注</t>
-  </si>
-  <si>
-    <t>攻击力</t>
-  </si>
-  <si>
-    <t>攻击间隔</t>
-  </si>
-  <si>
-    <t>子弹编号</t>
-  </si>
-  <si>
-    <t>子弹速度</t>
-  </si>
-  <si>
-    <t>子弹声音编号</t>
-  </si>
-  <si>
-    <t>玩家武器</t>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>技能列表</t>
+  </si>
+  <si>
+    <t>刘备</t>
+  </si>
+  <si>
+    <t>七进七出,单骑救主</t>
+  </si>
+  <si>
+    <t>关羽</t>
+  </si>
+  <si>
+    <t>张飞</t>
+  </si>
+  <si>
+    <t>赵云</t>
+  </si>
+  <si>
+    <t>曹操</t>
+  </si>
+  <si>
+    <t>郭嘉</t>
+  </si>
+  <si>
+    <t>典韦</t>
+  </si>
+  <si>
+    <t>张辽</t>
+  </si>
+  <si>
+    <t>孙权</t>
+  </si>
+  <si>
+    <t>甘宁</t>
+  </si>
+  <si>
+    <t>周瑜</t>
+  </si>
+  <si>
+    <t>陆逊</t>
   </si>
 </sst>
 </file>
@@ -726,7 +744,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -734,12 +752,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1061,121 +1073,160 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.45454545454546" style="3" customWidth="1"/>
-    <col min="2" max="3" width="9.72727272727273" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.72727272727273" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.4545454545455" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.72727272727273" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.5454545454545" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="8.45454545454546" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.72727272727273" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.72727272727273" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.6363636363636" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
-      <c r="A2" s="4" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+    </row>
+    <row r="4" s="2" customFormat="1" spans="2:4">
+      <c r="B4" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="2">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4" t="s">
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="2">
+        <v>1003</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="4" t="s">
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="2">
+        <v>1004</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="4" t="s">
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="2">
+        <v>1101</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="2:8">
-      <c r="B4" s="2">
-        <v>30000</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    <row r="9" spans="2:3">
+      <c r="B9" s="2">
+        <v>1102</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2">
-        <v>100</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>50000</v>
-      </c>
-      <c r="G4" s="2">
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="2">
+        <v>1103</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="2">
+        <v>1104</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="2">
-        <v>10000</v>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="2">
+        <v>1201</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="2">
+        <v>1202</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="2">
+        <v>1203</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="2">
+        <v>1204</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Design/Excel/GameHot/Datas/Hero.xlsx
+++ b/Design/Excel/GameHot/Datas/Hero.xlsx
@@ -68,16 +68,16 @@
     <t>刘备</t>
   </si>
   <si>
+    <t>关羽</t>
+  </si>
+  <si>
+    <t>张飞</t>
+  </si>
+  <si>
+    <t>赵云</t>
+  </si>
+  <si>
     <t>七进七出,单骑救主</t>
-  </si>
-  <si>
-    <t>关羽</t>
-  </si>
-  <si>
-    <t>张飞</t>
-  </si>
-  <si>
-    <t>赵云</t>
   </si>
   <si>
     <t>曹操</t>
@@ -1076,7 +1076,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -1130,15 +1130,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="2:4">
+    <row r="4" s="2" customFormat="1" spans="2:3">
       <c r="B4" s="2">
         <v>1001</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -1146,7 +1143,7 @@
         <v>1002</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:3">
@@ -1154,14 +1151,17 @@
         <v>1003</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
       <c r="B7" s="2">
         <v>1004</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Design/Excel/GameHot/Datas/Hero.xlsx
+++ b/Design/Excel/GameHot/Datas/Hero.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="武器表" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>##var</t>
   </si>
@@ -41,6 +41,12 @@
     <t>Skill</t>
   </si>
   <si>
+    <t>HandLimit</t>
+  </si>
+  <si>
+    <t>HpLimit</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -53,6 +59,15 @@
     <t>(list#sep=,),ESkill</t>
   </si>
   <si>
+    <t>##group</t>
+  </si>
+  <si>
+    <t>c,e,s</t>
+  </si>
+  <si>
+    <t>c,e</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
@@ -63,6 +78,12 @@
   </si>
   <si>
     <t>技能列表</t>
+  </si>
+  <si>
+    <t>手牌上限</t>
+  </si>
+  <si>
+    <t>血量上限</t>
   </si>
   <si>
     <t>刘备</t>
@@ -1073,22 +1094,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="8.45454545454546" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.72727272727273" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.72727272727273" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.6363636363636" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="10.1818181818182" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.45454545454545" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.45454545454545" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.2727272727273" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.9090909090909" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.72727272727273" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1101,132 +1124,242 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:4">
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="2:3">
-      <c r="B4" s="2">
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="2:6">
+      <c r="B5" s="2">
         <v>1001</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="2">
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="2">
         <v>1002</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="2">
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="2">
         <v>1003</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="2">
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="2">
         <v>1004</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="2">
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="2">
         <v>1101</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="2">
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="2">
         <v>1102</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="2">
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="2">
         <v>1103</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="2">
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4</v>
+      </c>
+      <c r="F11" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="2">
         <v>1104</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="2">
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="2">
         <v>1201</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="2">
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="2">
+        <v>6</v>
+      </c>
+      <c r="F13" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="2">
         <v>1202</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="2">
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="2">
+        <v>7</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="2">
         <v>1203</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="2">
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5</v>
+      </c>
+      <c r="F15" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="2">
         <v>1204</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>24</v>
+      <c r="C16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
